--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Scn5a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.03538133333333333</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H2">
-        <v>0.106144</v>
+        <v>0.155005</v>
       </c>
       <c r="I2">
-        <v>0.0113454327482436</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J2">
-        <v>0.01134543274824361</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.082317</v>
+        <v>0.06165400000000001</v>
       </c>
       <c r="N2">
-        <v>0.246951</v>
+        <v>0.184962</v>
       </c>
       <c r="O2">
-        <v>0.05525975897489142</v>
+        <v>0.04197078097348195</v>
       </c>
       <c r="P2">
-        <v>0.05525975897489142</v>
+        <v>0.04197078097348195</v>
       </c>
       <c r="Q2">
-        <v>0.002912485216</v>
+        <v>0.003185559423333334</v>
       </c>
       <c r="R2">
-        <v>0.026212366944</v>
+        <v>0.02867003481</v>
       </c>
       <c r="S2">
-        <v>0.0006269458791337816</v>
+        <v>0.0006840406626492714</v>
       </c>
       <c r="T2">
-        <v>0.0006269458791337816</v>
+        <v>0.0006840406626492714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.03538133333333333</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H3">
-        <v>0.106144</v>
+        <v>0.155005</v>
       </c>
       <c r="I3">
-        <v>0.0113454327482436</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J3">
-        <v>0.01134543274824361</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.24708</v>
       </c>
       <c r="O3">
-        <v>0.05528862506131246</v>
+        <v>0.05606633018094485</v>
       </c>
       <c r="P3">
-        <v>0.05528862506131246</v>
+        <v>0.05606633018094485</v>
       </c>
       <c r="Q3">
-        <v>0.002914006613333334</v>
+        <v>0.004255403933333334</v>
       </c>
       <c r="R3">
-        <v>0.02622605952</v>
+        <v>0.0382986354</v>
       </c>
       <c r="S3">
-        <v>0.0006272733773759763</v>
+        <v>0.000913770217273721</v>
       </c>
       <c r="T3">
-        <v>0.0006272733773759765</v>
+        <v>0.000913770217273721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.03538133333333333</v>
+        <v>0.05166833333333334</v>
       </c>
       <c r="H4">
-        <v>0.106144</v>
+        <v>0.155005</v>
       </c>
       <c r="I4">
-        <v>0.0113454327482436</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="J4">
-        <v>0.01134543274824361</v>
+        <v>0.01629802083219426</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.324960333333334</v>
+        <v>1.324960333333333</v>
       </c>
       <c r="N4">
-        <v>3.974881000000001</v>
+        <v>3.974881</v>
       </c>
       <c r="O4">
-        <v>0.8894516159637962</v>
+        <v>0.9019628888455732</v>
       </c>
       <c r="P4">
-        <v>0.8894516159637962</v>
+        <v>0.9019628888455732</v>
       </c>
       <c r="Q4">
-        <v>0.04687886320711112</v>
+        <v>0.06845849215611112</v>
       </c>
       <c r="R4">
-        <v>0.4219097688640001</v>
+        <v>0.616126429405</v>
       </c>
       <c r="S4">
-        <v>0.01009121349173385</v>
+        <v>0.01470020995227127</v>
       </c>
       <c r="T4">
-        <v>0.01009121349173385</v>
+        <v>0.01470020995227127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.03538133333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.106144</v>
+      </c>
+      <c r="I5">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="J5">
+        <v>0.01116052464896247</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.083171666666666</v>
-      </c>
-      <c r="H5">
-        <v>9.249514999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.9886545672517564</v>
-      </c>
-      <c r="J5">
-        <v>0.9886545672517564</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.082317</v>
+        <v>0.06165400000000001</v>
       </c>
       <c r="N5">
-        <v>0.246951</v>
+        <v>0.184962</v>
       </c>
       <c r="O5">
-        <v>0.05525975897489142</v>
+        <v>0.04197078097348195</v>
       </c>
       <c r="P5">
-        <v>0.05525975897489142</v>
+        <v>0.04197078097348195</v>
       </c>
       <c r="Q5">
-        <v>0.253797442085</v>
+        <v>0.002181400725333334</v>
       </c>
       <c r="R5">
-        <v>2.284176978765</v>
+        <v>0.019632606528</v>
       </c>
       <c r="S5">
-        <v>0.05463281309575764</v>
+        <v>0.0004684159355907503</v>
       </c>
       <c r="T5">
-        <v>0.05463281309575764</v>
+        <v>0.0004684159355907504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>3.083171666666666</v>
+        <v>0.03538133333333333</v>
       </c>
       <c r="H6">
-        <v>9.249514999999999</v>
+        <v>0.106144</v>
       </c>
       <c r="I6">
-        <v>0.9886545672517564</v>
+        <v>0.01116052464896247</v>
       </c>
       <c r="J6">
-        <v>0.9886545672517564</v>
+        <v>0.01116052464896247</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.24708</v>
       </c>
       <c r="O6">
-        <v>0.05528862506131246</v>
+        <v>0.05606633018094485</v>
       </c>
       <c r="P6">
-        <v>0.05528862506131246</v>
+        <v>0.05606633018094485</v>
       </c>
       <c r="Q6">
-        <v>0.2539300184666666</v>
+        <v>0.002914006613333334</v>
       </c>
       <c r="R6">
-        <v>2.2853701662</v>
+        <v>0.02622605952</v>
       </c>
       <c r="S6">
-        <v>0.05466135168393648</v>
+        <v>0.0006257296599613034</v>
       </c>
       <c r="T6">
-        <v>0.05466135168393649</v>
+        <v>0.0006257296599613035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>3.083171666666666</v>
+        <v>0.03538133333333333</v>
       </c>
       <c r="H7">
-        <v>9.249514999999999</v>
+        <v>0.106144</v>
       </c>
       <c r="I7">
-        <v>0.9886545672517564</v>
+        <v>0.01116052464896247</v>
       </c>
       <c r="J7">
-        <v>0.9886545672517564</v>
+        <v>0.01116052464896247</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.324960333333334</v>
+        <v>1.324960333333333</v>
       </c>
       <c r="N7">
-        <v>3.974881000000001</v>
+        <v>3.974881</v>
       </c>
       <c r="O7">
-        <v>0.8894516159637962</v>
+        <v>0.9019628888455732</v>
       </c>
       <c r="P7">
-        <v>0.8894516159637962</v>
+        <v>0.9019628888455732</v>
       </c>
       <c r="Q7">
+        <v>0.04687886320711111</v>
+      </c>
+      <c r="R7">
+        <v>0.421909768864</v>
+      </c>
+      <c r="S7">
+        <v>0.01006637905341042</v>
+      </c>
+      <c r="T7">
+        <v>0.01006637905341042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J8">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.06165400000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.184962</v>
+      </c>
+      <c r="O8">
+        <v>0.04197078097348195</v>
+      </c>
+      <c r="P8">
+        <v>0.04197078097348195</v>
+      </c>
+      <c r="Q8">
+        <v>0.1900898659366667</v>
+      </c>
+      <c r="R8">
+        <v>1.71080879343</v>
+      </c>
+      <c r="S8">
+        <v>0.04081832437524193</v>
+      </c>
+      <c r="T8">
+        <v>0.04081832437524194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J9">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.08236</v>
+      </c>
+      <c r="N9">
+        <v>0.24708</v>
+      </c>
+      <c r="O9">
+        <v>0.05606633018094485</v>
+      </c>
+      <c r="P9">
+        <v>0.05606633018094485</v>
+      </c>
+      <c r="Q9">
+        <v>0.2539300184666667</v>
+      </c>
+      <c r="R9">
+        <v>2.2853701662</v>
+      </c>
+      <c r="S9">
+        <v>0.05452683030370982</v>
+      </c>
+      <c r="T9">
+        <v>0.05452683030370983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.083171666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.249515000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.9725414545188432</v>
+      </c>
+      <c r="J10">
+        <v>0.9725414545188433</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.324960333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.974881</v>
+      </c>
+      <c r="O10">
+        <v>0.9019628888455732</v>
+      </c>
+      <c r="P10">
+        <v>0.9019628888455732</v>
+      </c>
+      <c r="Q10">
         <v>4.085080159190555</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>36.765721432715</v>
       </c>
-      <c r="S7">
-        <v>0.8793604024720624</v>
-      </c>
-      <c r="T7">
-        <v>0.8793604024720624</v>
+      <c r="S10">
+        <v>0.8771962998398914</v>
+      </c>
+      <c r="T10">
+        <v>0.8771962998398916</v>
       </c>
     </row>
   </sheetData>
